--- a/Document/리스트/애니메이션 리스트_강동민.xlsx
+++ b/Document/리스트/애니메이션 리스트_강동민.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="262">
   <si>
     <t xml:space="preserve">작성날짜 </t>
   </si>
@@ -872,6 +872,42 @@
   </si>
   <si>
     <t xml:space="preserve">    1-4. 타이틀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Title_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 끝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>난간에 앉자있으며 디스플레이를 만지는 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>난간에서 점프하는 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Restart_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망후 재시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망후 재시작시 나오는 모션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀, 사망후 재시작 모션 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1194,6 +1230,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,9 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1230,13 +1266,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1297,13 +1333,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1364,13 +1400,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1906,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2120,9 +2156,15 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3">
+        <v>43629</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -2142,28 +2184,28 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="42"/>
     </row>
     <row r="31" spans="2:5" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37" t="s">
@@ -2171,22 +2213,22 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="41"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="34" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
@@ -2204,10 +2246,10 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="41"/>
+      <c r="C39" s="42"/>
     </row>
     <row r="40" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
@@ -2215,16 +2257,16 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="41"/>
+      <c r="C41" s="42"/>
     </row>
     <row r="42" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C42" s="42"/>
     </row>
     <row r="43" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
@@ -2232,11 +2274,11 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
     </row>
     <row r="45" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2264,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E54"/>
+  <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2404,91 +2446,97 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>37</v>
+    <row r="14" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="10" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
@@ -2496,298 +2544,316 @@
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
     </row>
-    <row r="24" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>229</v>
-      </c>
+    <row r="24" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D47" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-    </row>
-    <row r="48" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" s="30"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" s="29"/>
+    <row r="49" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C51" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D51" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="53" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B53" s="44" t="s">
+      <c r="E51" s="29"/>
+    </row>
+    <row r="54" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="41" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="29" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54" s="29"/>
+      <c r="C55" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2802,7 +2868,7 @@
   <dimension ref="B3:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3485,7 @@
   <dimension ref="B3:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3454,8 +3520,8 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
